--- a/analysis_draft2017b/csv/t04.xlsx
+++ b/analysis_draft2017b/csv/t04.xlsx
@@ -43,37 +43,37 @@
     <t>Lifetime, days</t>
   </si>
   <si>
-    <t>+3652.02 ± 19.55</t>
-  </si>
-  <si>
-    <t>-3674.63 ± 18.99</t>
-  </si>
-  <si>
-    <t>-1814.39 ± 7.48</t>
-  </si>
-  <si>
-    <t>-1860.24 ± 13.61</t>
-  </si>
-  <si>
-    <t>+40.70 ± 0.26</t>
-  </si>
-  <si>
-    <t>+4.04 ± 0.03</t>
-  </si>
-  <si>
-    <t>+5479.26 ± 11.96</t>
-  </si>
-  <si>
-    <t>-5527.88 ± 12.02</t>
-  </si>
-  <si>
-    <t>-2324.14 ± 4.37</t>
-  </si>
-  <si>
-    <t>-3203.74 ± 8.05</t>
-  </si>
-  <si>
-    <t>+9.61 ± 0.02</t>
+    <t>+3683.19 ± 25.59</t>
+  </si>
+  <si>
+    <t>-3705.79 ± 25.88</t>
+  </si>
+  <si>
+    <t>-1819.27 ± 11.26</t>
+  </si>
+  <si>
+    <t>-1886.52 ± 16.05</t>
+  </si>
+  <si>
+    <t>+40.91 ± 0.30</t>
+  </si>
+  <si>
+    <t>+4.03 ± 0.04</t>
+  </si>
+  <si>
+    <t>+5484.88 ± 11.18</t>
+  </si>
+  <si>
+    <t>-5533.62 ± 11.24</t>
+  </si>
+  <si>
+    <t>-2324.42 ± 4.29</t>
+  </si>
+  <si>
+    <t>-3209.19 ± 7.27</t>
+  </si>
+  <si>
+    <t>+9.60 ± 0.02</t>
   </si>
   <si>
     <t>+0.63 ± 0.00</t>

--- a/analysis_draft2017b/csv/t04.xlsx
+++ b/analysis_draft2017b/csv/t04.xlsx
@@ -16,12 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
+    <t>Sea salt aerosol</t>
+  </si>
+  <si>
     <t>Dust aerosol</t>
   </si>
   <si>
-    <t>Sea salt aerosol</t>
-  </si>
-  <si>
     <t>Sources, Tg/yr</t>
   </si>
   <si>
@@ -43,6 +43,24 @@
     <t>Lifetime, days</t>
   </si>
   <si>
+    <t>+5484.88 ± 11.18</t>
+  </si>
+  <si>
+    <t>-5533.62 ± 11.24</t>
+  </si>
+  <si>
+    <t>-2324.42 ± 4.29</t>
+  </si>
+  <si>
+    <t>-3209.19 ± 7.27</t>
+  </si>
+  <si>
+    <t>+9.60 ± 0.02</t>
+  </si>
+  <si>
+    <t>+0.63 ± 0.00</t>
+  </si>
+  <si>
     <t>+3683.19 ± 25.59</t>
   </si>
   <si>
@@ -59,24 +77,6 @@
   </si>
   <si>
     <t>+4.03 ± 0.04</t>
-  </si>
-  <si>
-    <t>+5484.88 ± 11.18</t>
-  </si>
-  <si>
-    <t>-5533.62 ± 11.24</t>
-  </si>
-  <si>
-    <t>-2324.42 ± 4.29</t>
-  </si>
-  <si>
-    <t>-3209.19 ± 7.27</t>
-  </si>
-  <si>
-    <t>+9.60 ± 0.02</t>
-  </si>
-  <si>
-    <t>+0.63 ± 0.00</t>
   </si>
 </sst>
 </file>
